--- a/ipl/Royal Challengers Bangalore/Devdutt Padikkal.xlsx
+++ b/ipl/Royal Challengers Bangalore/Devdutt Padikkal.xlsx
@@ -397,7 +397,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:I5"/>
+  <dimension ref="A1:I19"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -547,9 +547,415 @@
         <v>Eliminator (N), Sharjah, October 11, 2021, Indian Premier League</v>
       </c>
     </row>
+    <row r="6">
+      <c r="A6" t="str">
+        <v>Devdutt Padikkal</v>
+      </c>
+      <c r="B6" t="str">
+        <v>70</v>
+      </c>
+      <c r="C6" t="str">
+        <v>50</v>
+      </c>
+      <c r="D6" t="str">
+        <v>5</v>
+      </c>
+      <c r="E6" t="str">
+        <v>3</v>
+      </c>
+      <c r="F6" t="str">
+        <v>140.00</v>
+      </c>
+      <c r="G6" t="str">
+        <v>Chennai Super Kings</v>
+      </c>
+      <c r="H6" t="str">
+        <v>Super Kings won by 6 wickets (with 11 balls remaining)</v>
+      </c>
+      <c r="I6" t="str">
+        <v>35th Match (N), Sharjah, September 24, 2021, Indian Premier League</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="str">
+        <v>Devdutt Padikkal</v>
+      </c>
+      <c r="B7" t="str">
+        <v>101</v>
+      </c>
+      <c r="C7" t="str">
+        <v>52</v>
+      </c>
+      <c r="D7" t="str">
+        <v>11</v>
+      </c>
+      <c r="E7" t="str">
+        <v>6</v>
+      </c>
+      <c r="F7" t="str">
+        <v>194.23</v>
+      </c>
+      <c r="G7" t="str">
+        <v>Rajasthan Royals</v>
+      </c>
+      <c r="H7" t="str">
+        <v>RCB won by 10 wickets (with 21 balls remaining)</v>
+      </c>
+      <c r="I7" t="str">
+        <v>16th Match (N), Wankhede, April 22, 2021, Indian Premier League</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="str">
+        <v>Devdutt Padikkal</v>
+      </c>
+      <c r="B8" t="str">
+        <v>17</v>
+      </c>
+      <c r="C8" t="str">
+        <v>14</v>
+      </c>
+      <c r="D8" t="str">
+        <v>3</v>
+      </c>
+      <c r="E8" t="str">
+        <v>0</v>
+      </c>
+      <c r="F8" t="str">
+        <v>121.42</v>
+      </c>
+      <c r="G8" t="str">
+        <v>Delhi Capitals</v>
+      </c>
+      <c r="H8" t="str">
+        <v>RCB won by 1 run</v>
+      </c>
+      <c r="I8" t="str">
+        <v>22nd Match (N), Ahmedabad, April 27, 2021, Indian Premier League</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="str">
+        <v>Devdutt Padikkal</v>
+      </c>
+      <c r="B9" t="str">
+        <v>25</v>
+      </c>
+      <c r="C9" t="str">
+        <v>28</v>
+      </c>
+      <c r="D9" t="str">
+        <v>2</v>
+      </c>
+      <c r="E9" t="str">
+        <v>0</v>
+      </c>
+      <c r="F9" t="str">
+        <v>89.28</v>
+      </c>
+      <c r="G9" t="str">
+        <v>Kolkata Knight Riders</v>
+      </c>
+      <c r="H9" t="str">
+        <v>RCB won by 38 runs</v>
+      </c>
+      <c r="I9" t="str">
+        <v>10th Match (D/N), Chennai, April 18, 2021, Indian Premier League</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="str">
+        <v>Devdutt Padikkal</v>
+      </c>
+      <c r="B10" t="str">
+        <v>41</v>
+      </c>
+      <c r="C10" t="str">
+        <v>52</v>
+      </c>
+      <c r="D10" t="str">
+        <v>4</v>
+      </c>
+      <c r="E10" t="str">
+        <v>0</v>
+      </c>
+      <c r="F10" t="str">
+        <v>78.84</v>
+      </c>
+      <c r="G10" t="str">
+        <v>Sunrisers Hyderabad</v>
+      </c>
+      <c r="H10" t="str">
+        <v>Sunrisers won by 4 runs</v>
+      </c>
+      <c r="I10" t="str">
+        <v>52nd Match (N), Abu Dhabi, October 06, 2021, Indian Premier League</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="str">
+        <v>Devdutt Padikkal</v>
+      </c>
+      <c r="B11" t="str">
+        <v>22</v>
+      </c>
+      <c r="C11" t="str">
+        <v>17</v>
+      </c>
+      <c r="D11" t="str">
+        <v>4</v>
+      </c>
+      <c r="E11" t="str">
+        <v>0</v>
+      </c>
+      <c r="F11" t="str">
+        <v>129.41</v>
+      </c>
+      <c r="G11" t="str">
+        <v>Rajasthan Royals</v>
+      </c>
+      <c r="H11" t="str">
+        <v>RCB won by 7 wickets (with 17 balls remaining)</v>
+      </c>
+      <c r="I11" t="str">
+        <v>43rd Match (N), Dubai (DSC), September 29, 2021, Indian Premier League</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="str">
+        <v>Devdutt Padikkal</v>
+      </c>
+      <c r="B12" t="str">
+        <v>0</v>
+      </c>
+      <c r="C12" t="str">
+        <v>1</v>
+      </c>
+      <c r="D12" t="str">
+        <v>0</v>
+      </c>
+      <c r="E12" t="str">
+        <v>0</v>
+      </c>
+      <c r="F12" t="str">
+        <v>0.00</v>
+      </c>
+      <c r="G12" t="str">
+        <v>Delhi Capitals</v>
+      </c>
+      <c r="H12" t="str">
+        <v>RCB won by 7 wickets</v>
+      </c>
+      <c r="I12" t="str">
+        <v>56th Match (N), Dubai (DSC), October 08, 2021, Indian Premier League</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="str">
+        <v>Devdutt Padikkal</v>
+      </c>
+      <c r="B13" t="str">
+        <v>7</v>
+      </c>
+      <c r="C13" t="str">
+        <v>6</v>
+      </c>
+      <c r="D13" t="str">
+        <v>0</v>
+      </c>
+      <c r="E13" t="str">
+        <v>1</v>
+      </c>
+      <c r="F13" t="str">
+        <v>116.66</v>
+      </c>
+      <c r="G13" t="str">
+        <v>Punjab Kings</v>
+      </c>
+      <c r="H13" t="str">
+        <v>Punjab Kings won by 34 runs</v>
+      </c>
+      <c r="I13" t="str">
+        <v>26th Match (N), Ahmedabad, April 30, 2021, Indian Premier League</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="str">
+        <v>Devdutt Padikkal</v>
+      </c>
+      <c r="B14" t="str">
+        <v>40</v>
+      </c>
+      <c r="C14" t="str">
+        <v>38</v>
+      </c>
+      <c r="D14" t="str">
+        <v>4</v>
+      </c>
+      <c r="E14" t="str">
+        <v>2</v>
+      </c>
+      <c r="F14" t="str">
+        <v>105.26</v>
+      </c>
+      <c r="G14" t="str">
+        <v>Punjab Kings</v>
+      </c>
+      <c r="H14" t="str">
+        <v>RCB won by 6 runs</v>
+      </c>
+      <c r="I14" t="str">
+        <v>48th Match, Sharjah, October 03, 2021, Indian Premier League</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="str">
+        <v>Devdutt Padikkal</v>
+      </c>
+      <c r="B15" t="str">
+        <v>22</v>
+      </c>
+      <c r="C15" t="str">
+        <v>20</v>
+      </c>
+      <c r="D15" t="str">
+        <v>3</v>
+      </c>
+      <c r="E15" t="str">
+        <v>0</v>
+      </c>
+      <c r="F15" t="str">
+        <v>110.00</v>
+      </c>
+      <c r="G15" t="str">
+        <v>Kolkata Knight Riders</v>
+      </c>
+      <c r="H15" t="str">
+        <v>KKR won by 9 wickets (with 60 balls remaining)</v>
+      </c>
+      <c r="I15" t="str">
+        <v>31st Match (N), Abu Dhabi, September 20, 2021, Indian Premier League</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="str">
+        <v>Devdutt Padikkal</v>
+      </c>
+      <c r="B16" t="str">
+        <v>34</v>
+      </c>
+      <c r="C16" t="str">
+        <v>15</v>
+      </c>
+      <c r="D16" t="str">
+        <v>4</v>
+      </c>
+      <c r="E16" t="str">
+        <v>2</v>
+      </c>
+      <c r="F16" t="str">
+        <v>226.66</v>
+      </c>
+      <c r="G16" t="str">
+        <v>Chennai Super Kings</v>
+      </c>
+      <c r="H16" t="str">
+        <v>Super Kings won by 69 runs</v>
+      </c>
+      <c r="I16" t="str">
+        <v>19th Match (D/N), Wankhede, April 25, 2021, Indian Premier League</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="str">
+        <v>Devdutt Padikkal</v>
+      </c>
+      <c r="B17" t="str">
+        <v>21</v>
+      </c>
+      <c r="C17" t="str">
+        <v>18</v>
+      </c>
+      <c r="D17" t="str">
+        <v>2</v>
+      </c>
+      <c r="E17" t="str">
+        <v>0</v>
+      </c>
+      <c r="F17" t="str">
+        <v>116.66</v>
+      </c>
+      <c r="G17" t="str">
+        <v>Kolkata Knight Riders</v>
+      </c>
+      <c r="H17" t="str">
+        <v>KKR won by 4 wickets (with 2 balls remaining)</v>
+      </c>
+      <c r="I17" t="str">
+        <v>Eliminator (N), Sharjah, October 11, 2021, Indian Premier League</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="str">
+        <v>Devdutt Padikkal</v>
+      </c>
+      <c r="B18" t="str">
+        <v>0</v>
+      </c>
+      <c r="C18" t="str">
+        <v>4</v>
+      </c>
+      <c r="D18" t="str">
+        <v>0</v>
+      </c>
+      <c r="E18" t="str">
+        <v>0</v>
+      </c>
+      <c r="F18" t="str">
+        <v>0.00</v>
+      </c>
+      <c r="G18" t="str">
+        <v>Mumbai Indians</v>
+      </c>
+      <c r="H18" t="str">
+        <v>RCB won by 54 runs</v>
+      </c>
+      <c r="I18" t="str">
+        <v>39th Match (N), Dubai (DSC), September 26, 2021, Indian Premier League</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="str">
+        <v>Devdutt Padikkal</v>
+      </c>
+      <c r="B19" t="str">
+        <v>11</v>
+      </c>
+      <c r="C19" t="str">
+        <v>13</v>
+      </c>
+      <c r="D19" t="str">
+        <v>2</v>
+      </c>
+      <c r="E19" t="str">
+        <v>0</v>
+      </c>
+      <c r="F19" t="str">
+        <v>84.61</v>
+      </c>
+      <c r="G19" t="str">
+        <v>Sunrisers Hyderabad</v>
+      </c>
+      <c r="H19" t="str">
+        <v>RCB won by 6 runs</v>
+      </c>
+      <c r="I19" t="str">
+        <v>6th Match (N), Chennai, April 14, 2021, Indian Premier League</v>
+      </c>
+    </row>
   </sheetData>
   <ignoredErrors>
-    <ignoredError numberStoredAsText="1" sqref="A1:I5"/>
+    <ignoredError numberStoredAsText="1" sqref="A1:I19"/>
   </ignoredErrors>
 </worksheet>
 </file>